--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>646868.4207897207</v>
+        <v>646868.420789721</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514381</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1151,7 +1151,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0873951859313</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,16 +1218,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>142.6489579526084</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1391,7 +1391,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1470,7 +1470,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>112.9995969463466</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2956661798583</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>217.7362671562299</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>241.0142888776591</v>
@@ -1856,52 +1856,52 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19.7279353865638</v>
+      </c>
+      <c r="I17" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.74905915623028</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>241.014288877659</v>
       </c>
     </row>
     <row r="21">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>70.84795259427423</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>191.8639173500312</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.014288877659</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>109.141779375072</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>106.0311077711177</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2494,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>230.2038249569696</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>61.60419870090042</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>64.45596056023854</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,16 +2925,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>40.07034467176453</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>230.2038249569698</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.0524176386246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3427,64 +3427,64 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434422</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>124.5388004963446</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3661,61 +3661,61 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3785,22 +3785,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>102.3382270926888</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V41" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3879,13 +3879,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,58 +3910,58 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>141.2741178240104</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>136.5980090815781</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="3">
@@ -4419,10 +4419,10 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,7 +4653,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>613.2059550252818</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4756,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4790,13 +4790,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.7040404982626</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="C9" t="n">
-        <v>223.7040404982626</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="D9" t="n">
-        <v>223.7040404982626</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>819.9672989928499</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>819.9672989928499</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>819.9672989928499</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>819.9672989928499</v>
       </c>
       <c r="W9" t="n">
-        <v>345.004439675971</v>
+        <v>576.5185223487499</v>
       </c>
       <c r="X9" t="n">
-        <v>345.004439675971</v>
+        <v>576.5185223487499</v>
       </c>
       <c r="Y9" t="n">
-        <v>345.004439675971</v>
+        <v>576.5185223487499</v>
       </c>
     </row>
     <row r="10">
@@ -4981,16 +4981,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="12">
@@ -5097,25 +5097,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,7 +5127,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
         <v>19.28114311021272</v>
@@ -5218,31 +5218,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>508.9694238887622</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C15" t="n">
-        <v>508.9694238887622</v>
+        <v>587.4175315882752</v>
       </c>
       <c r="D15" t="n">
-        <v>508.9694238887622</v>
+        <v>438.4831219270239</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>279.2456669215684</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>132.7111089484534</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,19 +5361,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5385,22 +5385,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>744.121532120505</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>508.9694238887622</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W15" t="n">
-        <v>508.9694238887622</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X15" t="n">
-        <v>508.9694238887622</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y15" t="n">
-        <v>508.9694238887622</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5458,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E17" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5543,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5604,13 +5604,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5707,7 +5707,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5762,40 +5762,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P20" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>749.6274730425127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>749.6274730425127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984127</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.84473158927761</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C21" t="n">
-        <v>90.84473158927761</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217535</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.057155510636</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635217</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141906</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729566</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093456</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093456</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093456</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="X21" t="n">
-        <v>259.0600686093456</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="Y21" t="n">
-        <v>259.0600686093456</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280782</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203004</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757367</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299843</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299843</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299843</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299843</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363992</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363992</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950733</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>712.0191193839557</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>853.8129339196541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>651.6263392784201</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>423.4027210148092</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="V24" t="n">
-        <v>188.2506127830665</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="W24" t="n">
-        <v>188.2506127830665</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="X24" t="n">
-        <v>188.2506127830665</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.2506127830665</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>136.0777814360265</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6233,43 +6233,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M26" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O26" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P26" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.057155510636</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.057155510636</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165639</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165639</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>495.2590358724639</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>495.2590358724639</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.2300195200813</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>318.0035561858384</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>318.0035561858384</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363992</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>542.8095319084027</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.8095319084027</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972852</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.057155510636</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>964.057155510636</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>964.057155510636</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051032</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4453565401493</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6424,7 +6424,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>521.1447485139395</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>346.6917192328125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>197.7573095715612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>197.7573095715612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>197.7573095715612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>197.7573095715612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>84.38817397914055</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6549,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950733</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950733</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>712.0191193839557</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.057155510636</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788933</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788933</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788933</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.1447485139395</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6652,10 +6652,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543127</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6710,40 +6710,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N32" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O32" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P32" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.6274730425127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543127</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>353.7257600495809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950733</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950733</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.0191193839557</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613049</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613049</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>562.416192697694</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>562.416192697694</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>562.416192697694</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>562.416192697694</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>521.941097069649</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>136.0777814360265</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>251.8102592283641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>251.8102592283641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6965,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>495.2590358724641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>495.2590358724641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>251.8102592283641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>251.8102592283641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>251.8102592283641</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439887</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328711</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217535</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.057155510636</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.057155510636</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.057155510636</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470251</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152824</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564955</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280782</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203004</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757367</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543127</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.0779112883386</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7260,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>726.4525409563266</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>909.0960185696774</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788933</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>728.9050472788933</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>521.0535470733605</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>313.2932483084066</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
         <v>19.28114311021272</v>
@@ -7363,19 +7363,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
         <v>19.28114311021272</v>
@@ -7421,40 +7421,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271062</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066563</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>366.1018663125842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>262.7299197543127</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7497,40 +7497,40 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195203</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>542.8095319084027</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.057155510636</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470251</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152824</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711824</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564955</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
         <v>19.28114311021272</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984127</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984127</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543127</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543127</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7661,37 +7661,37 @@
         <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>710.5167634983089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>710.5167634983089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984127</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984127</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984127</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>194.4883050441254</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299843</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299843</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299843</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299843</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299843</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>234.8108274061909</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950733</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>712.0191193839557</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>826.079368559547</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>826.079368559547</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>597.8557502959361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>362.7036420641934</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>362.7036420641934</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>362.7036420641934</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>362.7036420641934</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7837,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8067,13 +8067,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>242.4075215744184</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,16 +9252,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996773</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493022</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133071</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928323</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0408247018198</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221034</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902117</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221034</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519922</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221034</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535495</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996773</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>197.6503338623804</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627451</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361377</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221034</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6650540150651</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22595,7 +22595,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,13 +22607,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,10 +22744,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22793,16 +22793,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,19 +22911,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22996,7 +22996,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23039,7 +23039,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46.44578846393604</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23106,16 +23106,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23148,10 +23148,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>29.03421315122938</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23221,10 +23221,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23233,7 +23233,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23458,10 +23458,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>302.3031405687884</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23540,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.04785098335236</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,13 +23625,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>8.20511492474489</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23735,7 +23735,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>140.9160811946027</v>
@@ -23744,16 +23744,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>319.7468667292034</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23826,10 +23826,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.051527993195</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23947,10 +23947,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933486</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,13 +23978,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783946</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24051,10 +24051,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>76.59711297036452</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24099,13 +24099,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>40.93666979939405</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24206,10 +24206,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933486</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>18.67467251196047</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24263,16 +24263,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,16 +24333,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>62.5413917287658</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>119.9102743098572</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24382,13 +24382,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>139.5272757214994</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783946</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>111.1043002874153</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>206.5399494528817</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24734,10 +24734,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.3313640301775</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24759,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24774,10 +24774,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>24.94067229117654</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24813,16 +24813,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>165.6123511055398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25093,13 +25093,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>124.4792166637131</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25205,22 +25205,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.3313640301775</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386798</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,13 +25403,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783946</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>48.16969849197118</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25530,7 +25530,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25673,22 +25673,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>149.0074258151477</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247591</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124219</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.668752743024</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.3313640301775</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25941,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>6.170947740628321</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,19 +25992,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>35.08516202225971</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877312</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877308</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.883087731</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26353,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="P2" t="n">
-        <v>116312.4707719326</v>
+        <v>116312.4707719327</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26439,13 +26439,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
         <v>179.5324977039669</v>
@@ -26457,7 +26457,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12917.76202108066</v>
+        <v>-12917.76202108071</v>
       </c>
       <c r="C6" t="n">
-        <v>67851.66951046707</v>
+        <v>67851.66951046709</v>
       </c>
       <c r="D6" t="n">
-        <v>67851.66951046707</v>
+        <v>67851.66951046709</v>
       </c>
       <c r="E6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="F6" t="n">
         <v>101479.2695104671</v>
       </c>
       <c r="G6" t="n">
-        <v>101479.2695104671</v>
+        <v>101479.269510467</v>
       </c>
       <c r="H6" t="n">
         <v>101479.269510467</v>
@@ -26549,7 +26549,7 @@
         <v>101479.269510467</v>
       </c>
       <c r="L6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="M6" t="n">
         <v>101479.269510467</v>
@@ -26558,7 +26558,7 @@
         <v>101479.269510467</v>
       </c>
       <c r="O6" t="n">
-        <v>101479.2695104671</v>
+        <v>101479.269510467</v>
       </c>
       <c r="P6" t="n">
         <v>101479.269510467</v>
@@ -26805,31 +26805,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -34787,13 +34787,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,10 +35021,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>99.8112771299739</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35495,10 +35495,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35729,13 +35729,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.014288877659</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659689</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997385</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655595</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36677,22 +36677,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798015</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.014288877659</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681934</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.014288877659</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153931</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997385</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.014288877659</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.014288877659</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>55.51629994036207</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410584</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141194</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.014288877659</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
